--- a/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_33.xlsx
+++ b/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_33.xlsx
@@ -47,52 +47,55 @@
     <t>Feature</t>
   </si>
   <si>
+    <t>Largest period of inactivity (h)</t>
+  </si>
+  <si>
+    <t>Total time online (min)</t>
+  </si>
+  <si>
+    <t>On/off campus click ratio</t>
+  </si>
+  <si>
+    <t>Resources viewed</t>
+  </si>
+  <si>
     <t>Submissions (% of course total)</t>
   </si>
   <si>
-    <t>Largest period of inactivity (h)</t>
-  </si>
-  <si>
-    <t>Total time online (min)</t>
-  </si>
-  <si>
     <t>Clicks (% of course total)</t>
   </si>
   <si>
-    <t>Resources viewed</t>
-  </si>
-  <si>
-    <t>On/off campus click ratio</t>
-  </si>
-  <si>
     <t>Days with no interaction (%)</t>
   </si>
   <si>
     <t>Days with no interaction</t>
   </si>
   <si>
+    <t>Clicks on campus</t>
+  </si>
+  <si>
+    <t>Average session duration (min)</t>
+  </si>
+  <si>
+    <t>Start of Session 1 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 2 (%)</t>
+  </si>
+  <si>
+    <t>Average grade of assignments</t>
+  </si>
+  <si>
+    <t>Clicks per session</t>
+  </si>
+  <si>
     <t>Clicks per day</t>
   </si>
   <si>
-    <t>Clicks per session</t>
-  </si>
-  <si>
     <t>Number of days</t>
   </si>
   <si>
-    <t>Average grade of assignments</t>
-  </si>
-  <si>
-    <t>Start of Session 1 (%)</t>
-  </si>
-  <si>
-    <t>Average session duration (min)</t>
-  </si>
-  <si>
-    <t>Clicks on campus</t>
-  </si>
-  <si>
-    <t>Start of Session 2 (%)</t>
+    <t>Number of clicks</t>
   </si>
   <si>
     <t>Start of Session 4 (%)</t>
@@ -104,55 +107,52 @@
     <t>Assignments viewed</t>
   </si>
   <si>
+    <t>Clicks on folder</t>
+  </si>
+  <si>
+    <t>Number of sessions</t>
+  </si>
+  <si>
+    <t>Start of Session 7 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 5 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 3 (%)</t>
+  </si>
+  <si>
+    <t>Assignments submitted</t>
+  </si>
+  <si>
+    <t>Quizzes started</t>
+  </si>
+  <si>
+    <t>Forum posts</t>
+  </si>
+  <si>
+    <t>Files downloaded</t>
+  </si>
+  <si>
+    <t>Clicks on forum</t>
+  </si>
+  <si>
+    <t>Start of Session 9 (%)</t>
+  </si>
+  <si>
     <t>Start of Session 8 (%)</t>
   </si>
   <si>
-    <t>Files downloaded</t>
-  </si>
-  <si>
-    <t>Forum posts</t>
-  </si>
-  <si>
-    <t>Number of clicks</t>
-  </si>
-  <si>
-    <t>Clicks on folder</t>
-  </si>
-  <si>
-    <t>Assignments submitted</t>
-  </si>
-  <si>
-    <t>Number of sessions</t>
-  </si>
-  <si>
-    <t>Start of Session 7 (%)</t>
-  </si>
-  <si>
     <t>Start of Session 6 (%)</t>
   </si>
   <si>
-    <t>Start of Session 5 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 3 (%)</t>
-  </si>
-  <si>
     <t>Links viewed</t>
   </si>
   <si>
-    <t>Quizzes started</t>
-  </si>
-  <si>
     <t>Discussions viewed</t>
   </si>
   <si>
-    <t>Clicks on forum</t>
-  </si>
-  <si>
     <t>Start of Session 10 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 9 (%)</t>
   </si>
 </sst>
 </file>
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -568,7 +568,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -591,7 +591,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -809,13 +809,13 @@
         <v>18</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -911,13 +911,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -1001,13 +1001,13 @@
         <v>24</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -1033,7 +1033,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1065,7 +1065,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
@@ -1100,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1292,16 +1292,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1324,16 +1324,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -1455,13 +1455,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1747,7 +1747,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1779,7 +1779,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1884,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1902,21 +1902,21 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1948,13 +1948,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -1971,7 +1971,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -2044,13 +2044,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -2099,13 +2099,13 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -2126,12 +2126,12 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -2158,15 +2158,15 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -2195,10 +2195,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -2227,22 +2227,22 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -2254,12 +2254,12 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -2268,13 +2268,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -2291,10 +2291,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -2387,7 +2387,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2451,7 +2451,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
@@ -2483,7 +2483,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2620,13 +2620,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -2670,12 +2670,12 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B36" t="b">
         <v>0</v>
@@ -2867,7 +2867,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B37" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_33.xlsx
+++ b/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_33.xlsx
@@ -47,25 +47,46 @@
     <t>Feature</t>
   </si>
   <si>
+    <t>On/off campus click ratio</t>
+  </si>
+  <si>
     <t>Largest period of inactivity (h)</t>
   </si>
   <si>
+    <t>Clicks (% of course total)</t>
+  </si>
+  <si>
+    <t>Submissions (% of course total)</t>
+  </si>
+  <si>
+    <t>Days with no interaction (%)</t>
+  </si>
+  <si>
+    <t>Number of days</t>
+  </si>
+  <si>
+    <t>Clicks per day</t>
+  </si>
+  <si>
+    <t>Clicks per session</t>
+  </si>
+  <si>
+    <t>Resources viewed</t>
+  </si>
+  <si>
+    <t>Average grade of assignments</t>
+  </si>
+  <si>
+    <t>Start of Session 1 (%)</t>
+  </si>
+  <si>
+    <t>Average session duration (min)</t>
+  </si>
+  <si>
     <t>Total time online (min)</t>
   </si>
   <si>
-    <t>On/off campus click ratio</t>
-  </si>
-  <si>
-    <t>Resources viewed</t>
-  </si>
-  <si>
-    <t>Submissions (% of course total)</t>
-  </si>
-  <si>
-    <t>Clicks (% of course total)</t>
-  </si>
-  <si>
-    <t>Days with no interaction (%)</t>
+    <t>Start of Session 2 (%)</t>
   </si>
   <si>
     <t>Days with no interaction</t>
@@ -74,42 +95,30 @@
     <t>Clicks on campus</t>
   </si>
   <si>
-    <t>Average session duration (min)</t>
-  </si>
-  <si>
-    <t>Start of Session 1 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 2 (%)</t>
-  </si>
-  <si>
-    <t>Average grade of assignments</t>
-  </si>
-  <si>
-    <t>Clicks per session</t>
-  </si>
-  <si>
-    <t>Clicks per day</t>
-  </si>
-  <si>
-    <t>Number of days</t>
+    <t>Start of Session 4 (%)</t>
+  </si>
+  <si>
+    <t>Clicks on course</t>
   </si>
   <si>
     <t>Number of clicks</t>
   </si>
   <si>
-    <t>Start of Session 4 (%)</t>
-  </si>
-  <si>
-    <t>Clicks on course</t>
-  </si>
-  <si>
     <t>Assignments viewed</t>
   </si>
   <si>
+    <t>Files downloaded</t>
+  </si>
+  <si>
+    <t>Forum posts</t>
+  </si>
+  <si>
     <t>Clicks on folder</t>
   </si>
   <si>
+    <t>Assignments submitted</t>
+  </si>
+  <si>
     <t>Number of sessions</t>
   </si>
   <si>
@@ -122,21 +131,18 @@
     <t>Start of Session 3 (%)</t>
   </si>
   <si>
-    <t>Assignments submitted</t>
+    <t>Discussions viewed</t>
   </si>
   <si>
     <t>Quizzes started</t>
   </si>
   <si>
-    <t>Forum posts</t>
-  </si>
-  <si>
-    <t>Files downloaded</t>
-  </si>
-  <si>
     <t>Clicks on forum</t>
   </si>
   <si>
+    <t>Start of Session 10 (%)</t>
+  </si>
+  <si>
     <t>Start of Session 9 (%)</t>
   </si>
   <si>
@@ -147,12 +153,6 @@
   </si>
   <si>
     <t>Links viewed</t>
-  </si>
-  <si>
-    <t>Discussions viewed</t>
-  </si>
-  <si>
-    <t>Start of Session 10 (%)</t>
   </si>
 </sst>
 </file>
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -568,7 +568,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -591,7 +591,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -652,7 +652,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -719,7 +719,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -809,10 +809,10 @@
         <v>18</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -847,13 +847,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -949,7 +949,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -972,7 +972,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1004,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1033,13 +1033,13 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1065,16 +1065,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
@@ -1089,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1100,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1129,16 +1129,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1164,7 +1164,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1260,16 +1260,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1292,16 +1292,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1324,16 +1324,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1359,13 +1359,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1747,7 +1747,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1779,7 +1779,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1907,16 +1907,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1948,13 +1948,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -1971,7 +1971,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -2035,7 +2035,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -2044,13 +2044,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -2099,16 +2099,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -2131,13 +2131,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -2163,10 +2163,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -2195,13 +2195,13 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -2230,19 +2230,19 @@
         <v>36</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -2254,15 +2254,15 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -2286,15 +2286,15 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -2318,21 +2318,21 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -2355,16 +2355,16 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -2387,7 +2387,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2451,10 +2451,10 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -2492,13 +2492,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2620,13 +2620,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -2670,12 +2670,12 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36" t="b">
         <v>0</v>
@@ -2867,7 +2867,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B37" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_33.xlsx
+++ b/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_33.xlsx
@@ -47,81 +47,84 @@
     <t>Feature</t>
   </si>
   <si>
+    <t>Largest period of inactivity (h)</t>
+  </si>
+  <si>
+    <t>Total time online (min)</t>
+  </si>
+  <si>
     <t>On/off campus click ratio</t>
   </si>
   <si>
-    <t>Largest period of inactivity (h)</t>
-  </si>
-  <si>
     <t>Clicks (% of course total)</t>
   </si>
   <si>
+    <t>Clicks on campus</t>
+  </si>
+  <si>
+    <t>Start of Session 1 (%)</t>
+  </si>
+  <si>
+    <t>Average grade of assignments</t>
+  </si>
+  <si>
+    <t>Resources viewed</t>
+  </si>
+  <si>
     <t>Submissions (% of course total)</t>
   </si>
   <si>
+    <t>Clicks per session</t>
+  </si>
+  <si>
+    <t>Clicks per day</t>
+  </si>
+  <si>
+    <t>Number of days</t>
+  </si>
+  <si>
+    <t>Days with no interaction</t>
+  </si>
+  <si>
+    <t>Average session duration (min)</t>
+  </si>
+  <si>
+    <t>Start of Session 2 (%)</t>
+  </si>
+  <si>
+    <t>Number of clicks</t>
+  </si>
+  <si>
     <t>Days with no interaction (%)</t>
   </si>
   <si>
-    <t>Number of days</t>
-  </si>
-  <si>
-    <t>Clicks per day</t>
-  </si>
-  <si>
-    <t>Clicks per session</t>
-  </si>
-  <si>
-    <t>Resources viewed</t>
-  </si>
-  <si>
-    <t>Average grade of assignments</t>
-  </si>
-  <si>
-    <t>Start of Session 1 (%)</t>
-  </si>
-  <si>
-    <t>Average session duration (min)</t>
-  </si>
-  <si>
-    <t>Total time online (min)</t>
-  </si>
-  <si>
-    <t>Start of Session 2 (%)</t>
-  </si>
-  <si>
-    <t>Days with no interaction</t>
-  </si>
-  <si>
-    <t>Clicks on campus</t>
-  </si>
-  <si>
     <t>Start of Session 4 (%)</t>
   </si>
   <si>
+    <t>Files downloaded</t>
+  </si>
+  <si>
+    <t>Forum posts</t>
+  </si>
+  <si>
+    <t>Assignments viewed</t>
+  </si>
+  <si>
+    <t>Clicks on folder</t>
+  </si>
+  <si>
+    <t>Assignments submitted</t>
+  </si>
+  <si>
     <t>Clicks on course</t>
   </si>
   <si>
-    <t>Number of clicks</t>
-  </si>
-  <si>
-    <t>Assignments viewed</t>
-  </si>
-  <si>
-    <t>Files downloaded</t>
-  </si>
-  <si>
-    <t>Forum posts</t>
-  </si>
-  <si>
-    <t>Clicks on folder</t>
-  </si>
-  <si>
-    <t>Assignments submitted</t>
-  </si>
-  <si>
     <t>Number of sessions</t>
   </si>
   <si>
+    <t>Start of Session 8 (%)</t>
+  </si>
+  <si>
     <t>Start of Session 7 (%)</t>
   </si>
   <si>
@@ -144,9 +147,6 @@
   </si>
   <si>
     <t>Start of Session 9 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 8 (%)</t>
   </si>
   <si>
     <t>Start of Session 6 (%)</t>
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -568,7 +568,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -591,7 +591,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -652,7 +652,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -684,10 +684,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -751,13 +751,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -812,13 +812,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -847,13 +847,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1065,7 +1065,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
@@ -1135,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1161,13 +1161,13 @@
         <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>30</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -1295,13 +1295,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1747,7 +1747,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1779,7 +1779,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1916,13 +1916,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1971,7 +1971,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -2035,7 +2035,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -2044,13 +2044,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -2067,13 +2067,13 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -2094,12 +2094,12 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -2126,24 +2126,24 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -2158,12 +2158,12 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2195,10 +2195,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -2291,10 +2291,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -2318,21 +2318,21 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -2355,16 +2355,16 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -2387,16 +2387,16 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2428,13 +2428,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -2451,7 +2451,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2460,13 +2460,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -2483,16 +2483,16 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2675,7 +2675,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" t="b">
         <v>0</v>
@@ -2867,7 +2867,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B37" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_33.xlsx
+++ b/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_33.xlsx
@@ -47,18 +47,24 @@
     <t>Feature</t>
   </si>
   <si>
+    <t>On/off campus click ratio</t>
+  </si>
+  <si>
     <t>Largest period of inactivity (h)</t>
   </si>
   <si>
     <t>Total time online (min)</t>
   </si>
   <si>
-    <t>On/off campus click ratio</t>
+    <t>Submissions (% of course total)</t>
   </si>
   <si>
     <t>Clicks (% of course total)</t>
   </si>
   <si>
+    <t>Number of days</t>
+  </si>
+  <si>
     <t>Clicks on campus</t>
   </si>
   <si>
@@ -71,40 +77,34 @@
     <t>Resources viewed</t>
   </si>
   <si>
-    <t>Submissions (% of course total)</t>
-  </si>
-  <si>
     <t>Clicks per session</t>
   </si>
   <si>
     <t>Clicks per day</t>
   </si>
   <si>
-    <t>Number of days</t>
+    <t>Average session duration (min)</t>
+  </si>
+  <si>
+    <t>Start of Session 2 (%)</t>
   </si>
   <si>
     <t>Days with no interaction</t>
   </si>
   <si>
-    <t>Average session duration (min)</t>
-  </si>
-  <si>
-    <t>Start of Session 2 (%)</t>
+    <t>Days with no interaction (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 4 (%)</t>
+  </si>
+  <si>
+    <t>Forum posts</t>
   </si>
   <si>
     <t>Number of clicks</t>
   </si>
   <si>
-    <t>Days with no interaction (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 4 (%)</t>
-  </si>
-  <si>
     <t>Files downloaded</t>
-  </si>
-  <si>
-    <t>Forum posts</t>
   </si>
   <si>
     <t>Assignments viewed</t>
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -568,7 +568,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -591,7 +591,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -684,7 +684,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -748,7 +748,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -757,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -818,10 +818,10 @@
         <v>1</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -844,10 +844,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -1065,7 +1065,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
@@ -1097,19 +1097,19 @@
         <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1135,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1779,7 +1779,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1907,13 +1907,13 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -1922,7 +1922,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1948,13 +1948,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -1971,7 +1971,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -2035,7 +2035,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -2067,13 +2067,13 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -2094,18 +2094,18 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -2126,21 +2126,21 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -2169,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -2190,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2227,13 +2227,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -2291,7 +2291,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -2387,7 +2387,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -2498,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_33.xlsx
+++ b/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_33.xlsx
@@ -47,55 +47,64 @@
     <t>Feature</t>
   </si>
   <si>
+    <t>Submissions (% of course total)</t>
+  </si>
+  <si>
+    <t>Total time online (min)</t>
+  </si>
+  <si>
     <t>On/off campus click ratio</t>
   </si>
   <si>
+    <t>Clicks (% of course total)</t>
+  </si>
+  <si>
+    <t>Resources viewed</t>
+  </si>
+  <si>
     <t>Largest period of inactivity (h)</t>
   </si>
   <si>
-    <t>Total time online (min)</t>
-  </si>
-  <si>
-    <t>Submissions (% of course total)</t>
-  </si>
-  <si>
-    <t>Clicks (% of course total)</t>
+    <t>Clicks on campus</t>
+  </si>
+  <si>
+    <t>Average session duration (min)</t>
   </si>
   <si>
     <t>Number of days</t>
   </si>
   <si>
-    <t>Clicks on campus</t>
+    <t>Clicks per day</t>
   </si>
   <si>
     <t>Start of Session 1 (%)</t>
   </si>
   <si>
+    <t>Clicks per session</t>
+  </si>
+  <si>
+    <t>Days with no interaction (%)</t>
+  </si>
+  <si>
     <t>Average grade of assignments</t>
   </si>
   <si>
-    <t>Resources viewed</t>
-  </si>
-  <si>
-    <t>Clicks per session</t>
-  </si>
-  <si>
-    <t>Clicks per day</t>
-  </si>
-  <si>
-    <t>Average session duration (min)</t>
+    <t>Start of Session 4 (%)</t>
+  </si>
+  <si>
+    <t>Days with no interaction</t>
   </si>
   <si>
     <t>Start of Session 2 (%)</t>
   </si>
   <si>
-    <t>Days with no interaction</t>
-  </si>
-  <si>
-    <t>Days with no interaction (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 4 (%)</t>
+    <t>Clicks on course</t>
+  </si>
+  <si>
+    <t>Assignments viewed</t>
+  </si>
+  <si>
+    <t>Files downloaded</t>
   </si>
   <si>
     <t>Forum posts</t>
@@ -104,49 +113,40 @@
     <t>Number of clicks</t>
   </si>
   <si>
-    <t>Files downloaded</t>
-  </si>
-  <si>
-    <t>Assignments viewed</t>
-  </si>
-  <si>
     <t>Clicks on folder</t>
   </si>
   <si>
     <t>Assignments submitted</t>
   </si>
   <si>
-    <t>Clicks on course</t>
-  </si>
-  <si>
     <t>Number of sessions</t>
   </si>
   <si>
+    <t>Start of Session 7 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 5 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 3 (%)</t>
+  </si>
+  <si>
+    <t>Discussions viewed</t>
+  </si>
+  <si>
+    <t>Quizzes started</t>
+  </si>
+  <si>
+    <t>Clicks on forum</t>
+  </si>
+  <si>
+    <t>Start of Session 10 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 9 (%)</t>
+  </si>
+  <si>
     <t>Start of Session 8 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 7 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 5 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 3 (%)</t>
-  </si>
-  <si>
-    <t>Discussions viewed</t>
-  </si>
-  <si>
-    <t>Quizzes started</t>
-  </si>
-  <si>
-    <t>Clicks on forum</t>
-  </si>
-  <si>
-    <t>Start of Session 10 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 9 (%)</t>
   </si>
   <si>
     <t>Start of Session 6 (%)</t>
@@ -591,7 +591,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -728,7 +728,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -748,7 +748,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -815,13 +815,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -844,10 +844,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -940,7 +940,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -972,16 +972,16 @@
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1004,13 +1004,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -1033,7 +1033,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1065,16 +1065,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
@@ -1089,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1097,19 +1097,19 @@
         <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1129,7 +1129,7 @@
         <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>30</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -1231,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -1295,13 +1295,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1747,7 +1747,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1779,7 +1779,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1913,10 +1913,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1971,7 +1971,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -2035,16 +2035,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
@@ -2126,12 +2126,12 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2163,19 +2163,19 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -2195,13 +2195,13 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -2227,22 +2227,22 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -2259,22 +2259,22 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -2286,12 +2286,12 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -2387,16 +2387,16 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2428,13 +2428,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -2451,7 +2451,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2460,13 +2460,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -2483,7 +2483,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2675,7 +2675,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" t="b">
         <v>0</v>
@@ -2867,7 +2867,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B37" t="b">
         <v>0</v>
